--- a/demo_projects/demo1/cassandra/inputs/demo_project_data.xlsx
+++ b/demo_projects/demo1/cassandra/inputs/demo_project_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zz_modelling_projects\Council_ABC\road_network\cassandra\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aa_non_code_repos\cassandra_default_road_model\demo_projects\demo1\cassandra\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9097407-839B-4A9B-BE37-BF85541E8126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3CDBC1-B782-462C-B723-A5E3F1175A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lookups" sheetId="3" r:id="rId1"/>
@@ -1758,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F5F74A-BCC4-4AB5-9730-41F4A1723B13}">
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2254,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="49">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>62</v>
@@ -8505,7 +8505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8795E6D0-757F-474B-8FBC-CFCEF05E2CD3}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
